--- a/Pin144.xlsx
+++ b/Pin144.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7515" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="pinmux配置" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="1661">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6579,6 +6579,47 @@
   <si>
     <t>ISR_PWGA49func</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT SUPPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;In4&gt;ADCA0TRG1</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Low_Level</t>
+  </si>
+  <si>
+    <t>&lt;In3&gt;TAUB1I0</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>&lt;In1&gt;TAUD0I9</t>
+  </si>
+  <si>
+    <t>High_Level</t>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;In1&gt;RLIN24RX</t>
+  </si>
+  <si>
+    <t>&lt;In7&gt;CAN3RX</t>
   </si>
 </sst>
 </file>
@@ -6771,7 +6812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -7243,15 +7284,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -7329,7 +7361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7500,19 +7532,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7543,40 +7575,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7607,6 +7653,99 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7645,6 +7784,15 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7654,136 +7802,121 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -8388,166 +8521,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8850,9 +8823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T434"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H430" sqref="H430"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8927,11 +8900,11 @@
       <c r="P1" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="82" t="s">
+      <c r="R1" s="85" t="s">
         <v>526</v>
       </c>
-      <c r="S1" s="83"/>
-      <c r="T1" s="84"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="87"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59">
@@ -8952,19 +8925,39 @@
       <c r="F2" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="26"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="87"/>
+      <c r="G2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>1652</v>
+      </c>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="90"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
@@ -8983,25 +8976,39 @@
         <v>174</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1650</v>
+      </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>1650</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="26"/>
+      <c r="P3" s="26" t="s">
+        <v>1657</v>
+      </c>
       <c r="R3" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="T3" s="89"/>
+      <c r="T3" s="92"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
@@ -9032,7 +9039,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="26"/>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="81" t="s">
         <v>118</v>
       </c>
       <c r="S4" s="10" t="s">
@@ -9061,9 +9068,13 @@
       <c r="F5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H5" s="53"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>1655</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -9071,7 +9082,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="26"/>
-      <c r="R5" s="72"/>
+      <c r="R5" s="81"/>
       <c r="S5" s="10" t="s">
         <v>120</v>
       </c>
@@ -9111,10 +9122,10 @@
       <c r="R6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="S6" s="80" t="s">
+      <c r="S6" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="81"/>
+      <c r="T6" s="84"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
@@ -9181,10 +9192,10 @@
       <c r="R8" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="S8" s="80" t="s">
+      <c r="S8" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="T8" s="81"/>
+      <c r="T8" s="84"/>
     </row>
     <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
@@ -9218,10 +9229,10 @@
       <c r="R9" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="S9" s="80" t="s">
+      <c r="S9" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="T9" s="81"/>
+      <c r="T9" s="84"/>
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
@@ -9242,23 +9253,43 @@
       <c r="F10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="26"/>
+      <c r="G10" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>1652</v>
+      </c>
       <c r="R10" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="S10" s="80" t="s">
+      <c r="S10" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="T10" s="81"/>
+      <c r="T10" s="84"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
@@ -9289,7 +9320,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="26"/>
-      <c r="R11" s="72" t="s">
+      <c r="R11" s="81" t="s">
         <v>130</v>
       </c>
       <c r="S11" s="10" t="s">
@@ -9318,8 +9349,12 @@
       <c r="F12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="53"/>
+      <c r="G12" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>1659</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -9328,7 +9363,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="26"/>
-      <c r="R12" s="72"/>
+      <c r="R12" s="81"/>
       <c r="S12" s="10" t="s">
         <v>132</v>
       </c>
@@ -9368,10 +9403,10 @@
       <c r="R13" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="S13" s="80" t="s">
+      <c r="S13" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="T13" s="81"/>
+      <c r="T13" s="84"/>
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
@@ -9478,7 +9513,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="26"/>
-      <c r="R16" s="72" t="s">
+      <c r="R16" s="81" t="s">
         <v>141</v>
       </c>
       <c r="S16" s="10" t="s">
@@ -9517,7 +9552,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="26"/>
-      <c r="R17" s="72"/>
+      <c r="R17" s="81"/>
       <c r="S17" s="10" t="s">
         <v>144</v>
       </c>
@@ -9574,7 +9609,7 @@
       <c r="P18" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="R18" s="72" t="s">
+      <c r="R18" s="81" t="s">
         <v>146</v>
       </c>
       <c r="S18" s="10" t="s">
@@ -9613,7 +9648,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="26"/>
-      <c r="R19" s="72"/>
+      <c r="R19" s="81"/>
       <c r="S19" s="10" t="s">
         <v>144</v>
       </c>
@@ -9650,7 +9685,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="26"/>
-      <c r="R20" s="72" t="s">
+      <c r="R20" s="81" t="s">
         <v>149</v>
       </c>
       <c r="S20" s="10" t="s">
@@ -9689,7 +9724,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="26"/>
-      <c r="R21" s="72"/>
+      <c r="R21" s="81"/>
       <c r="S21" s="10" t="s">
         <v>144</v>
       </c>
@@ -9726,7 +9761,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="26"/>
-      <c r="R22" s="72" t="s">
+      <c r="R22" s="81" t="s">
         <v>153</v>
       </c>
       <c r="S22" s="10" t="s">
@@ -9769,7 +9804,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="26"/>
-      <c r="R23" s="68"/>
+      <c r="R23" s="82"/>
       <c r="S23" s="11" t="s">
         <v>144</v>
       </c>
@@ -9806,10 +9841,10 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="26"/>
-      <c r="R24" s="68" t="s">
+      <c r="R24" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="S24" s="71" t="s">
+      <c r="S24" s="95" t="s">
         <v>142</v>
       </c>
       <c r="T24" s="34" t="s">
@@ -9845,8 +9880,8 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="26"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="71"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="95"/>
       <c r="T25" s="35" t="s">
         <v>158</v>
       </c>
@@ -9880,8 +9915,8 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="26"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="71" t="s">
+      <c r="R26" s="93"/>
+      <c r="S26" s="95" t="s">
         <v>159</v>
       </c>
       <c r="T26" s="34" t="s">
@@ -9907,18 +9942,36 @@
       <c r="F27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H27" s="53"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="26"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="71"/>
+      <c r="I27" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>1652</v>
+      </c>
+      <c r="R27" s="94"/>
+      <c r="S27" s="95"/>
       <c r="T27" s="35" t="s">
         <v>161</v>
       </c>
@@ -9942,17 +9995,37 @@
       <c r="F28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="26"/>
-      <c r="R28" s="72" t="s">
+      <c r="G28" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="P28" s="26" t="s">
+        <v>1657</v>
+      </c>
+      <c r="R28" s="81" t="s">
         <v>162</v>
       </c>
       <c r="S28" s="12" t="s">
@@ -9991,7 +10064,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="26"/>
-      <c r="R29" s="72"/>
+      <c r="R29" s="81"/>
       <c r="S29" s="12" t="s">
         <v>159</v>
       </c>
@@ -10048,7 +10121,7 @@
       <c r="P30" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="R30" s="72" t="s">
+      <c r="R30" s="81" t="s">
         <v>166</v>
       </c>
       <c r="S30" s="12" t="s">
@@ -10087,7 +10160,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="26"/>
-      <c r="R31" s="79"/>
+      <c r="R31" s="102"/>
       <c r="S31" s="36" t="s">
         <v>159</v>
       </c>
@@ -10154,10 +10227,10 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="26"/>
-      <c r="R33" s="77" t="s">
+      <c r="R33" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="S33" s="78"/>
+      <c r="S33" s="101"/>
     </row>
     <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="22">
@@ -10324,10 +10397,10 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="26"/>
-      <c r="R38" s="73" t="s">
+      <c r="R38" s="96" t="s">
         <v>832</v>
       </c>
-      <c r="S38" s="74"/>
+      <c r="S38" s="97"/>
     </row>
     <row r="39" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
@@ -10358,8 +10431,8 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="26"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="76"/>
+      <c r="R39" s="98"/>
+      <c r="S39" s="99"/>
     </row>
     <row r="40" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A40" s="22">
@@ -11324,11 +11397,15 @@
       <c r="F64" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G64" s="5"/>
+      <c r="G64" s="5" t="s">
+        <v>1654</v>
+      </c>
       <c r="H64" s="53" t="s">
         <v>1452</v>
       </c>
-      <c r="I64" s="5"/>
+      <c r="I64" s="5" t="s">
+        <v>1655</v>
+      </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
@@ -12608,14 +12685,24 @@
       <c r="F103" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G103" s="5"/>
+      <c r="G103" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H103" s="53" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
+        <v>1658</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>1650</v>
+      </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
@@ -23788,6 +23875,19 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:P345"/>
   <mergeCells count="20">
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R38:S39"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S8:T8"/>
     <mergeCell ref="R20:R21"/>
     <mergeCell ref="R22:R23"/>
     <mergeCell ref="S10:T10"/>
@@ -23795,19 +23895,6 @@
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R38:S39"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R30:R31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
@@ -24413,9 +24500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K359"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -24448,132 +24535,132 @@
       <c r="F1" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="124" t="s">
         <v>523</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>1475</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="H2" s="93" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="H2" s="127" t="s">
         <v>524</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="H3" s="96" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="H3" s="130" t="s">
         <v>525</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="H4" s="99" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
+      <c r="H4" s="133" t="s">
         <v>527</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="135"/>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="134"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="138"/>
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="114"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="138"/>
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="134"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>6</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="134"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="138"/>
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>7</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="134"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
@@ -24594,10 +24681,10 @@
       <c r="F10" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="H10" s="132"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="134"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
@@ -24618,10 +24705,10 @@
       <c r="F11" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="H11" s="132"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="134"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
@@ -24642,10 +24729,10 @@
       <c r="F12" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="134"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
@@ -24666,10 +24753,10 @@
       <c r="F13" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="H13" s="132"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="134"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -24690,10 +24777,10 @@
       <c r="F14" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="104"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="141"/>
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
@@ -24762,11 +24849,11 @@
       <c r="B18" s="17" t="s">
         <v>1455</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="103" t="s">
         <v>1493</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
       <c r="F18" s="23" t="s">
         <v>363</v>
       </c>
@@ -24778,9 +24865,11 @@
       <c r="B19" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
+      <c r="C19" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="23" t="s">
         <v>364</v>
       </c>
@@ -24852,17 +24941,17 @@
       <c r="B23" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="121" t="s">
         <v>542</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="24" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="135">
+      <c r="A24" s="71">
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -24882,7 +24971,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="135">
+      <c r="A25" s="71">
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -24966,11 +25055,11 @@
       <c r="B29" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="24" t="s">
         <v>374</v>
       </c>
@@ -24982,9 +25071,11 @@
       <c r="B30" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
+      <c r="C30" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
       <c r="F30" s="24" t="s">
         <v>375</v>
       </c>
@@ -25050,11 +25141,11 @@
       <c r="B34" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="D34" s="118"/>
-      <c r="E34" s="119"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="105"/>
       <c r="F34" s="24" t="s">
         <v>379</v>
       </c>
@@ -25066,9 +25157,11 @@
       <c r="B35" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="120"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="122"/>
+      <c r="C35" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
       <c r="F35" s="24" t="s">
         <v>380</v>
       </c>
@@ -25116,7 +25209,9 @@
       <c r="B38" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="16" t="s">
+        <v>111</v>
+      </c>
       <c r="D38" s="43" t="s">
         <v>551</v>
       </c>
@@ -25170,7 +25265,9 @@
       <c r="B41" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="16" t="s">
+        <v>111</v>
+      </c>
       <c r="D41" s="43" t="s">
         <v>554</v>
       </c>
@@ -25188,7 +25285,9 @@
       <c r="B42" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="16"/>
+      <c r="C42" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="D42" s="43" t="s">
         <v>555</v>
       </c>
@@ -25206,7 +25305,9 @@
       <c r="B43" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="16"/>
+      <c r="C43" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="D43" s="43" t="s">
         <v>556</v>
       </c>
@@ -25221,13 +25322,13 @@
       <c r="A44" s="25">
         <v>42</v>
       </c>
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="118" t="s">
         <v>397</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="116"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="120"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="22">
@@ -25476,11 +25577,11 @@
       <c r="B58" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="117" t="s">
+      <c r="C58" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="D58" s="118"/>
-      <c r="E58" s="119"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="105"/>
       <c r="F58" s="23" t="s">
         <v>396</v>
       </c>
@@ -25492,9 +25593,11 @@
       <c r="B59" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C59" s="126"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="128"/>
+      <c r="C59" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D59" s="104"/>
+      <c r="E59" s="105"/>
       <c r="F59" s="23" t="s">
         <v>398</v>
       </c>
@@ -25506,9 +25609,11 @@
       <c r="B60" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="126"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="128"/>
+      <c r="C60" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D60" s="104"/>
+      <c r="E60" s="105"/>
       <c r="F60" s="23" t="s">
         <v>399</v>
       </c>
@@ -25520,9 +25625,11 @@
       <c r="B61" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C61" s="120"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="122"/>
+      <c r="C61" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D61" s="104"/>
+      <c r="E61" s="105"/>
       <c r="F61" s="23" t="s">
         <v>400</v>
       </c>
@@ -25986,11 +26093,11 @@
       <c r="B87" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="117" t="s">
+      <c r="C87" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="D87" s="118"/>
-      <c r="E87" s="119"/>
+      <c r="D87" s="104"/>
+      <c r="E87" s="105"/>
       <c r="F87" s="23" t="s">
         <v>426</v>
       </c>
@@ -26002,9 +26109,11 @@
       <c r="B88" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C88" s="126"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="128"/>
+      <c r="C88" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D88" s="104"/>
+      <c r="E88" s="105"/>
       <c r="F88" s="23" t="s">
         <v>427</v>
       </c>
@@ -26016,9 +26125,11 @@
       <c r="B89" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C89" s="126"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="128"/>
+      <c r="C89" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D89" s="104"/>
+      <c r="E89" s="105"/>
       <c r="F89" s="24" t="s">
         <v>428</v>
       </c>
@@ -26030,9 +26141,11 @@
       <c r="B90" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C90" s="126"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="128"/>
+      <c r="C90" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D90" s="104"/>
+      <c r="E90" s="105"/>
       <c r="F90" s="24" t="s">
         <v>429</v>
       </c>
@@ -26044,9 +26157,11 @@
       <c r="B91" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C91" s="126"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="128"/>
+      <c r="C91" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D91" s="104"/>
+      <c r="E91" s="105"/>
       <c r="F91" s="24" t="s">
         <v>430</v>
       </c>
@@ -26058,9 +26173,11 @@
       <c r="B92" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C92" s="126"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="128"/>
+      <c r="C92" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D92" s="104"/>
+      <c r="E92" s="105"/>
       <c r="F92" s="24" t="s">
         <v>431</v>
       </c>
@@ -26072,9 +26189,11 @@
       <c r="B93" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C93" s="120"/>
-      <c r="D93" s="121"/>
-      <c r="E93" s="122"/>
+      <c r="C93" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D93" s="104"/>
+      <c r="E93" s="105"/>
       <c r="F93" s="24" t="s">
         <v>432</v>
       </c>
@@ -26299,63 +26418,63 @@
       <c r="A106" s="25">
         <v>104</v>
       </c>
-      <c r="B106" s="105" t="s">
+      <c r="B106" s="109" t="s">
         <v>397</v>
       </c>
-      <c r="C106" s="106"/>
-      <c r="D106" s="106"/>
-      <c r="E106" s="106"/>
-      <c r="F106" s="107"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="110"/>
+      <c r="F106" s="111"/>
     </row>
     <row r="107" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="25">
         <v>105</v>
       </c>
-      <c r="B107" s="108"/>
-      <c r="C107" s="109"/>
-      <c r="D107" s="109"/>
-      <c r="E107" s="109"/>
-      <c r="F107" s="110"/>
+      <c r="B107" s="112"/>
+      <c r="C107" s="113"/>
+      <c r="D107" s="113"/>
+      <c r="E107" s="113"/>
+      <c r="F107" s="114"/>
     </row>
     <row r="108" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="25">
         <v>106</v>
       </c>
-      <c r="B108" s="108"/>
-      <c r="C108" s="109"/>
-      <c r="D108" s="109"/>
-      <c r="E108" s="109"/>
-      <c r="F108" s="110"/>
+      <c r="B108" s="112"/>
+      <c r="C108" s="113"/>
+      <c r="D108" s="113"/>
+      <c r="E108" s="113"/>
+      <c r="F108" s="114"/>
     </row>
     <row r="109" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="25">
         <v>107</v>
       </c>
-      <c r="B109" s="108"/>
-      <c r="C109" s="109"/>
-      <c r="D109" s="109"/>
-      <c r="E109" s="109"/>
-      <c r="F109" s="110"/>
+      <c r="B109" s="112"/>
+      <c r="C109" s="113"/>
+      <c r="D109" s="113"/>
+      <c r="E109" s="113"/>
+      <c r="F109" s="114"/>
     </row>
     <row r="110" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="25">
         <v>108</v>
       </c>
-      <c r="B110" s="108"/>
-      <c r="C110" s="109"/>
-      <c r="D110" s="109"/>
-      <c r="E110" s="109"/>
-      <c r="F110" s="110"/>
+      <c r="B110" s="112"/>
+      <c r="C110" s="113"/>
+      <c r="D110" s="113"/>
+      <c r="E110" s="113"/>
+      <c r="F110" s="114"/>
     </row>
     <row r="111" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="25">
         <v>109</v>
       </c>
-      <c r="B111" s="111"/>
-      <c r="C111" s="112"/>
-      <c r="D111" s="112"/>
-      <c r="E111" s="112"/>
-      <c r="F111" s="113"/>
+      <c r="B111" s="115"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="116"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="117"/>
     </row>
     <row r="112" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="22">
@@ -26364,11 +26483,11 @@
       <c r="B112" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C112" s="117" t="s">
+      <c r="C112" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="D112" s="118"/>
-      <c r="E112" s="119"/>
+      <c r="D112" s="104"/>
+      <c r="E112" s="105"/>
       <c r="F112" s="24" t="s">
         <v>445</v>
       </c>
@@ -26380,9 +26499,11 @@
       <c r="B113" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C113" s="126"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="128"/>
+      <c r="C113" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D113" s="104"/>
+      <c r="E113" s="105"/>
       <c r="F113" s="24" t="s">
         <v>446</v>
       </c>
@@ -26394,9 +26515,11 @@
       <c r="B114" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C114" s="120"/>
-      <c r="D114" s="121"/>
-      <c r="E114" s="122"/>
+      <c r="C114" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D114" s="104"/>
+      <c r="E114" s="105"/>
       <c r="F114" s="24" t="s">
         <v>447</v>
       </c>
@@ -26514,11 +26637,11 @@
       <c r="B121" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C121" s="117" t="s">
+      <c r="C121" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="D121" s="118"/>
-      <c r="E121" s="119"/>
+      <c r="D121" s="104"/>
+      <c r="E121" s="105"/>
       <c r="F121" s="23" t="s">
         <v>454</v>
       </c>
@@ -26530,9 +26653,11 @@
       <c r="B122" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C122" s="120"/>
-      <c r="D122" s="121"/>
-      <c r="E122" s="122"/>
+      <c r="C122" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D122" s="104"/>
+      <c r="E122" s="105"/>
       <c r="F122" s="23" t="s">
         <v>455</v>
       </c>
@@ -26796,11 +26921,11 @@
       <c r="B137" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C137" s="123" t="s">
+      <c r="C137" s="121" t="s">
         <v>542</v>
       </c>
-      <c r="D137" s="124"/>
-      <c r="E137" s="125"/>
+      <c r="D137" s="122"/>
+      <c r="E137" s="123"/>
       <c r="F137" s="23" t="s">
         <v>466</v>
       </c>
@@ -26809,63 +26934,63 @@
       <c r="A138" s="25">
         <v>136</v>
       </c>
-      <c r="B138" s="105" t="s">
+      <c r="B138" s="109" t="s">
         <v>397</v>
       </c>
-      <c r="C138" s="106"/>
-      <c r="D138" s="106"/>
-      <c r="E138" s="106"/>
-      <c r="F138" s="107"/>
+      <c r="C138" s="110"/>
+      <c r="D138" s="110"/>
+      <c r="E138" s="110"/>
+      <c r="F138" s="111"/>
     </row>
     <row r="139" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="25">
         <v>137</v>
       </c>
-      <c r="B139" s="108"/>
-      <c r="C139" s="109"/>
-      <c r="D139" s="109"/>
-      <c r="E139" s="109"/>
-      <c r="F139" s="110"/>
+      <c r="B139" s="112"/>
+      <c r="C139" s="113"/>
+      <c r="D139" s="113"/>
+      <c r="E139" s="113"/>
+      <c r="F139" s="114"/>
     </row>
     <row r="140" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="25">
         <v>138</v>
       </c>
-      <c r="B140" s="108"/>
-      <c r="C140" s="109"/>
-      <c r="D140" s="109"/>
-      <c r="E140" s="109"/>
-      <c r="F140" s="110"/>
+      <c r="B140" s="112"/>
+      <c r="C140" s="113"/>
+      <c r="D140" s="113"/>
+      <c r="E140" s="113"/>
+      <c r="F140" s="114"/>
     </row>
     <row r="141" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="25">
         <v>139</v>
       </c>
-      <c r="B141" s="108"/>
-      <c r="C141" s="109"/>
-      <c r="D141" s="109"/>
-      <c r="E141" s="109"/>
-      <c r="F141" s="110"/>
+      <c r="B141" s="112"/>
+      <c r="C141" s="113"/>
+      <c r="D141" s="113"/>
+      <c r="E141" s="113"/>
+      <c r="F141" s="114"/>
     </row>
     <row r="142" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="25">
         <v>140</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="110"/>
+      <c r="B142" s="112"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="25">
         <v>141</v>
       </c>
-      <c r="B143" s="111"/>
-      <c r="C143" s="112"/>
-      <c r="D143" s="112"/>
-      <c r="E143" s="112"/>
-      <c r="F143" s="113"/>
+      <c r="B143" s="115"/>
+      <c r="C143" s="116"/>
+      <c r="D143" s="116"/>
+      <c r="E143" s="116"/>
+      <c r="F143" s="117"/>
     </row>
     <row r="144" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="22">
@@ -27218,11 +27343,11 @@
       <c r="B163" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C163" s="117" t="s">
+      <c r="C163" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="D163" s="118"/>
-      <c r="E163" s="119"/>
+      <c r="D163" s="104"/>
+      <c r="E163" s="105"/>
       <c r="F163" s="23" t="s">
         <v>485</v>
       </c>
@@ -27234,9 +27359,11 @@
       <c r="B164" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C164" s="126"/>
-      <c r="D164" s="127"/>
-      <c r="E164" s="128"/>
+      <c r="C164" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D164" s="104"/>
+      <c r="E164" s="105"/>
       <c r="F164" s="23" t="s">
         <v>486</v>
       </c>
@@ -27248,9 +27375,11 @@
       <c r="B165" s="17" t="s">
         <v>1499</v>
       </c>
-      <c r="C165" s="126"/>
-      <c r="D165" s="127"/>
-      <c r="E165" s="128"/>
+      <c r="C165" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D165" s="104"/>
+      <c r="E165" s="105"/>
       <c r="F165" s="23" t="s">
         <v>1500</v>
       </c>
@@ -27262,9 +27391,11 @@
       <c r="B166" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C166" s="120"/>
-      <c r="D166" s="121"/>
-      <c r="E166" s="122"/>
+      <c r="C166" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D166" s="104"/>
+      <c r="E166" s="105"/>
       <c r="F166" s="23" t="s">
         <v>487</v>
       </c>
@@ -27399,123 +27530,123 @@
       <c r="A174" s="22">
         <v>172</v>
       </c>
-      <c r="B174" s="105" t="s">
+      <c r="B174" s="109" t="s">
         <v>1620</v>
       </c>
-      <c r="C174" s="106"/>
-      <c r="D174" s="106"/>
-      <c r="E174" s="106"/>
-      <c r="F174" s="107"/>
+      <c r="C174" s="110"/>
+      <c r="D174" s="110"/>
+      <c r="E174" s="110"/>
+      <c r="F174" s="111"/>
     </row>
     <row r="175" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="22">
         <v>173</v>
       </c>
-      <c r="B175" s="108"/>
-      <c r="C175" s="109"/>
-      <c r="D175" s="109"/>
-      <c r="E175" s="109"/>
-      <c r="F175" s="110"/>
+      <c r="B175" s="112"/>
+      <c r="C175" s="113"/>
+      <c r="D175" s="113"/>
+      <c r="E175" s="113"/>
+      <c r="F175" s="114"/>
     </row>
     <row r="176" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="22">
         <v>174</v>
       </c>
-      <c r="B176" s="108"/>
-      <c r="C176" s="109"/>
-      <c r="D176" s="109"/>
-      <c r="E176" s="109"/>
-      <c r="F176" s="110"/>
+      <c r="B176" s="112"/>
+      <c r="C176" s="113"/>
+      <c r="D176" s="113"/>
+      <c r="E176" s="113"/>
+      <c r="F176" s="114"/>
     </row>
     <row r="177" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="22">
         <v>175</v>
       </c>
-      <c r="B177" s="108"/>
-      <c r="C177" s="109"/>
-      <c r="D177" s="109"/>
-      <c r="E177" s="109"/>
-      <c r="F177" s="110"/>
+      <c r="B177" s="112"/>
+      <c r="C177" s="113"/>
+      <c r="D177" s="113"/>
+      <c r="E177" s="113"/>
+      <c r="F177" s="114"/>
     </row>
     <row r="178" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="22">
         <v>176</v>
       </c>
-      <c r="B178" s="108"/>
-      <c r="C178" s="109"/>
-      <c r="D178" s="109"/>
-      <c r="E178" s="109"/>
-      <c r="F178" s="110"/>
+      <c r="B178" s="112"/>
+      <c r="C178" s="113"/>
+      <c r="D178" s="113"/>
+      <c r="E178" s="113"/>
+      <c r="F178" s="114"/>
     </row>
     <row r="179" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="22">
         <v>177</v>
       </c>
-      <c r="B179" s="108"/>
-      <c r="C179" s="109"/>
-      <c r="D179" s="109"/>
-      <c r="E179" s="109"/>
-      <c r="F179" s="110"/>
+      <c r="B179" s="112"/>
+      <c r="C179" s="113"/>
+      <c r="D179" s="113"/>
+      <c r="E179" s="113"/>
+      <c r="F179" s="114"/>
     </row>
     <row r="180" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="22">
         <v>178</v>
       </c>
-      <c r="B180" s="108"/>
-      <c r="C180" s="109"/>
-      <c r="D180" s="109"/>
-      <c r="E180" s="109"/>
-      <c r="F180" s="110"/>
+      <c r="B180" s="112"/>
+      <c r="C180" s="113"/>
+      <c r="D180" s="113"/>
+      <c r="E180" s="113"/>
+      <c r="F180" s="114"/>
     </row>
     <row r="181" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="22">
         <v>179</v>
       </c>
-      <c r="B181" s="108"/>
-      <c r="C181" s="109"/>
-      <c r="D181" s="109"/>
-      <c r="E181" s="109"/>
-      <c r="F181" s="110"/>
+      <c r="B181" s="112"/>
+      <c r="C181" s="113"/>
+      <c r="D181" s="113"/>
+      <c r="E181" s="113"/>
+      <c r="F181" s="114"/>
     </row>
     <row r="182" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="22">
         <v>180</v>
       </c>
-      <c r="B182" s="108"/>
-      <c r="C182" s="109"/>
-      <c r="D182" s="109"/>
-      <c r="E182" s="109"/>
-      <c r="F182" s="110"/>
+      <c r="B182" s="112"/>
+      <c r="C182" s="113"/>
+      <c r="D182" s="113"/>
+      <c r="E182" s="113"/>
+      <c r="F182" s="114"/>
     </row>
     <row r="183" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="22">
         <v>181</v>
       </c>
-      <c r="B183" s="108"/>
-      <c r="C183" s="109"/>
-      <c r="D183" s="109"/>
-      <c r="E183" s="109"/>
-      <c r="F183" s="110"/>
+      <c r="B183" s="112"/>
+      <c r="C183" s="113"/>
+      <c r="D183" s="113"/>
+      <c r="E183" s="113"/>
+      <c r="F183" s="114"/>
     </row>
     <row r="184" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="22">
         <v>182</v>
       </c>
-      <c r="B184" s="108"/>
-      <c r="C184" s="109"/>
-      <c r="D184" s="109"/>
-      <c r="E184" s="109"/>
-      <c r="F184" s="110"/>
+      <c r="B184" s="112"/>
+      <c r="C184" s="113"/>
+      <c r="D184" s="113"/>
+      <c r="E184" s="113"/>
+      <c r="F184" s="114"/>
     </row>
     <row r="185" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="22">
         <v>183</v>
       </c>
-      <c r="B185" s="111"/>
-      <c r="C185" s="112"/>
-      <c r="D185" s="112"/>
-      <c r="E185" s="112"/>
-      <c r="F185" s="113"/>
+      <c r="B185" s="115"/>
+      <c r="C185" s="116"/>
+      <c r="D185" s="116"/>
+      <c r="E185" s="116"/>
+      <c r="F185" s="117"/>
     </row>
     <row r="186" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="22">
@@ -27899,17 +28030,17 @@
       <c r="A207" s="22">
         <v>205</v>
       </c>
-      <c r="B207" s="129" t="s">
+      <c r="B207" s="68" t="s">
         <v>1459</v>
       </c>
-      <c r="C207" s="130"/>
+      <c r="C207" s="69"/>
       <c r="D207" s="53" t="s">
         <v>1459</v>
       </c>
       <c r="E207" s="53" t="s">
         <v>1462</v>
       </c>
-      <c r="F207" s="131" t="s">
+      <c r="F207" s="70" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -28097,13 +28228,13 @@
       <c r="A218" s="25">
         <v>216</v>
       </c>
-      <c r="B218" s="114" t="s">
+      <c r="B218" s="118" t="s">
         <v>1476</v>
       </c>
-      <c r="C218" s="115"/>
-      <c r="D218" s="115"/>
-      <c r="E218" s="115"/>
-      <c r="F218" s="116"/>
+      <c r="C218" s="119"/>
+      <c r="D218" s="119"/>
+      <c r="E218" s="119"/>
+      <c r="F218" s="120"/>
     </row>
     <row r="219" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="22">
@@ -28218,11 +28349,11 @@
       <c r="B225" s="17" t="s">
         <v>1503</v>
       </c>
-      <c r="C225" s="117" t="s">
+      <c r="C225" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="D225" s="118"/>
-      <c r="E225" s="119"/>
+      <c r="D225" s="104"/>
+      <c r="E225" s="105"/>
       <c r="F225" s="23" t="s">
         <v>1511</v>
       </c>
@@ -28234,9 +28365,11 @@
       <c r="B226" s="17" t="s">
         <v>1504</v>
       </c>
-      <c r="C226" s="126"/>
-      <c r="D226" s="127"/>
-      <c r="E226" s="128"/>
+      <c r="C226" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D226" s="104"/>
+      <c r="E226" s="105"/>
       <c r="F226" s="23" t="s">
         <v>1512</v>
       </c>
@@ -28248,9 +28381,11 @@
       <c r="B227" s="17" t="s">
         <v>1505</v>
       </c>
-      <c r="C227" s="126"/>
-      <c r="D227" s="127"/>
-      <c r="E227" s="128"/>
+      <c r="C227" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D227" s="104"/>
+      <c r="E227" s="105"/>
       <c r="F227" s="23" t="s">
         <v>1513</v>
       </c>
@@ -28262,9 +28397,11 @@
       <c r="B228" s="17" t="s">
         <v>1506</v>
       </c>
-      <c r="C228" s="126"/>
-      <c r="D228" s="127"/>
-      <c r="E228" s="128"/>
+      <c r="C228" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D228" s="104"/>
+      <c r="E228" s="105"/>
       <c r="F228" s="23" t="s">
         <v>1514</v>
       </c>
@@ -28276,9 +28413,11 @@
       <c r="B229" s="17" t="s">
         <v>1507</v>
       </c>
-      <c r="C229" s="126"/>
-      <c r="D229" s="127"/>
-      <c r="E229" s="128"/>
+      <c r="C229" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D229" s="104"/>
+      <c r="E229" s="105"/>
       <c r="F229" s="23" t="s">
         <v>1515</v>
       </c>
@@ -28290,9 +28429,11 @@
       <c r="B230" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C230" s="120"/>
-      <c r="D230" s="121"/>
-      <c r="E230" s="122"/>
+      <c r="C230" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="D230" s="104"/>
+      <c r="E230" s="105"/>
       <c r="F230" s="23" t="s">
         <v>519</v>
       </c>
@@ -28316,24 +28457,24 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="140">
+      <c r="A232" s="76">
         <v>230</v>
       </c>
-      <c r="B232" s="137" t="s">
+      <c r="B232" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="C232" s="138"/>
-      <c r="D232" s="136" t="s">
+      <c r="C232" s="74"/>
+      <c r="D232" s="72" t="s">
         <v>677</v>
       </c>
-      <c r="E232" s="136" t="s">
+      <c r="E232" s="72" t="s">
         <v>1556</v>
       </c>
-      <c r="F232" s="139" t="s">
+      <c r="F232" s="75" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="141" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" s="77" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6">
         <v>231</v>
       </c>
@@ -28349,34 +28490,34 @@
       <c r="E233" s="16" t="s">
         <v>1557</v>
       </c>
-      <c r="F233" s="144" t="s">
+      <c r="F233" s="80" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6">
         <v>232</v>
       </c>
-      <c r="B234" s="137" t="s">
+      <c r="B234" s="73" t="s">
         <v>1524</v>
       </c>
-      <c r="C234" s="120" t="s">
+      <c r="C234" s="106" t="s">
         <v>542</v>
       </c>
-      <c r="D234" s="121"/>
-      <c r="E234" s="122"/>
-      <c r="F234" s="143" t="s">
+      <c r="D234" s="107"/>
+      <c r="E234" s="108"/>
+      <c r="F234" s="79" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6">
         <v>233</v>
       </c>
-      <c r="B235" s="137" t="s">
+      <c r="B235" s="73" t="s">
         <v>1525</v>
       </c>
-      <c r="C235" s="138"/>
+      <c r="C235" s="74"/>
       <c r="D235" s="43" t="s">
         <v>1549</v>
       </c>
@@ -28387,66 +28528,66 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="6">
         <v>234</v>
       </c>
-      <c r="B236" s="137" t="s">
+      <c r="B236" s="73" t="s">
         <v>1526</v>
       </c>
-      <c r="C236" s="138"/>
-      <c r="D236" s="136" t="s">
+      <c r="C236" s="74"/>
+      <c r="D236" s="72" t="s">
         <v>1550</v>
       </c>
-      <c r="E236" s="136" t="s">
+      <c r="E236" s="72" t="s">
         <v>1559</v>
       </c>
-      <c r="F236" s="139" t="s">
+      <c r="F236" s="75" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6">
         <v>235</v>
       </c>
-      <c r="B237" s="137" t="s">
+      <c r="B237" s="73" t="s">
         <v>1527</v>
       </c>
-      <c r="C237" s="138"/>
+      <c r="C237" s="74"/>
       <c r="D237" s="16" t="s">
         <v>1551</v>
       </c>
       <c r="E237" s="16" t="s">
         <v>1560</v>
       </c>
-      <c r="F237" s="144" t="s">
+      <c r="F237" s="80" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6">
         <v>236</v>
       </c>
-      <c r="B238" s="137" t="s">
+      <c r="B238" s="73" t="s">
         <v>1528</v>
       </c>
-      <c r="C238" s="123" t="s">
+      <c r="C238" s="121" t="s">
         <v>542</v>
       </c>
-      <c r="D238" s="124"/>
-      <c r="E238" s="125"/>
-      <c r="F238" s="143" t="s">
+      <c r="D238" s="122"/>
+      <c r="E238" s="123"/>
+      <c r="F238" s="79" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="6">
         <v>237</v>
       </c>
-      <c r="B239" s="137" t="s">
+      <c r="B239" s="73" t="s">
         <v>1529</v>
       </c>
-      <c r="C239" s="138"/>
+      <c r="C239" s="74"/>
       <c r="D239" s="43" t="s">
         <v>1562</v>
       </c>
@@ -28457,50 +28598,50 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="6">
         <v>238</v>
       </c>
-      <c r="B240" s="137" t="s">
+      <c r="B240" s="73" t="s">
         <v>1530</v>
       </c>
-      <c r="C240" s="138"/>
-      <c r="D240" s="136" t="s">
+      <c r="C240" s="74"/>
+      <c r="D240" s="72" t="s">
         <v>1563</v>
       </c>
-      <c r="E240" s="136" t="s">
+      <c r="E240" s="72" t="s">
         <v>1566</v>
       </c>
-      <c r="F240" s="139" t="s">
+      <c r="F240" s="75" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="6">
         <v>239</v>
       </c>
       <c r="B241" s="17" t="s">
         <v>1531</v>
       </c>
-      <c r="C241" s="138"/>
+      <c r="C241" s="74"/>
       <c r="D241" s="16" t="s">
         <v>1564</v>
       </c>
       <c r="E241" s="16" t="s">
         <v>1567</v>
       </c>
-      <c r="F241" s="144" t="s">
+      <c r="F241" s="80" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="6">
         <v>240</v>
       </c>
-      <c r="B242" s="137" t="s">
+      <c r="B242" s="73" t="s">
         <v>1532</v>
       </c>
-      <c r="C242" s="138"/>
+      <c r="C242" s="74"/>
       <c r="D242" s="43" t="s">
         <v>1571</v>
       </c>
@@ -28511,14 +28652,14 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="6">
         <v>241</v>
       </c>
-      <c r="B243" s="137" t="s">
+      <c r="B243" s="73" t="s">
         <v>1533</v>
       </c>
-      <c r="C243" s="138"/>
+      <c r="C243" s="74"/>
       <c r="D243" s="43" t="s">
         <v>1574</v>
       </c>
@@ -28529,14 +28670,14 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6">
         <v>242</v>
       </c>
-      <c r="B244" s="137" t="s">
+      <c r="B244" s="73" t="s">
         <v>1534</v>
       </c>
-      <c r="C244" s="138"/>
+      <c r="C244" s="74"/>
       <c r="D244" s="43" t="s">
         <v>1576</v>
       </c>
@@ -28547,14 +28688,14 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6">
         <v>243</v>
       </c>
-      <c r="B245" s="137" t="s">
+      <c r="B245" s="73" t="s">
         <v>1535</v>
       </c>
-      <c r="C245" s="138"/>
+      <c r="C245" s="74"/>
       <c r="D245" s="43" t="s">
         <v>1579</v>
       </c>
@@ -28565,14 +28706,14 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6">
         <v>244</v>
       </c>
-      <c r="B246" s="137" t="s">
+      <c r="B246" s="73" t="s">
         <v>1536</v>
       </c>
-      <c r="C246" s="138"/>
+      <c r="C246" s="74"/>
       <c r="D246" s="43" t="s">
         <v>1582</v>
       </c>
@@ -28583,7 +28724,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6">
         <v>245</v>
       </c>
@@ -28601,14 +28742,14 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6">
         <v>246</v>
       </c>
-      <c r="B248" s="137" t="s">
+      <c r="B248" s="73" t="s">
         <v>1538</v>
       </c>
-      <c r="C248" s="138"/>
+      <c r="C248" s="74"/>
       <c r="D248" s="43" t="s">
         <v>1588</v>
       </c>
@@ -28619,7 +28760,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6">
         <v>247</v>
       </c>
@@ -28637,14 +28778,14 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6">
         <v>248</v>
       </c>
-      <c r="B250" s="137" t="s">
+      <c r="B250" s="73" t="s">
         <v>1540</v>
       </c>
-      <c r="C250" s="138"/>
+      <c r="C250" s="74"/>
       <c r="D250" s="43" t="s">
         <v>1594</v>
       </c>
@@ -28655,7 +28796,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="6">
         <v>249</v>
       </c>
@@ -28673,14 +28814,14 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="6">
         <v>250</v>
       </c>
-      <c r="B252" s="137" t="s">
+      <c r="B252" s="73" t="s">
         <v>1542</v>
       </c>
-      <c r="C252" s="138"/>
+      <c r="C252" s="74"/>
       <c r="D252" s="43" t="s">
         <v>1600</v>
       </c>
@@ -28691,7 +28832,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="6">
         <v>251</v>
       </c>
@@ -28709,14 +28850,14 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="6">
         <v>252</v>
       </c>
-      <c r="B254" s="137" t="s">
+      <c r="B254" s="73" t="s">
         <v>1544</v>
       </c>
-      <c r="C254" s="138"/>
+      <c r="C254" s="74"/>
       <c r="D254" s="43" t="s">
         <v>1606</v>
       </c>
@@ -28727,7 +28868,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6">
         <v>253</v>
       </c>
@@ -28745,14 +28886,14 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6">
         <v>254</v>
       </c>
-      <c r="B256" s="137" t="s">
+      <c r="B256" s="73" t="s">
         <v>1546</v>
       </c>
-      <c r="C256" s="138"/>
+      <c r="C256" s="74"/>
       <c r="D256" s="43" t="s">
         <v>1612</v>
       </c>
@@ -28763,7 +28904,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6">
         <v>255</v>
       </c>
@@ -28781,176 +28922,176 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6">
         <v>256</v>
       </c>
-      <c r="B258" s="105" t="s">
+      <c r="B258" s="109" t="s">
         <v>1476</v>
       </c>
-      <c r="C258" s="106"/>
-      <c r="D258" s="106"/>
-      <c r="E258" s="106"/>
-      <c r="F258" s="107"/>
-    </row>
-    <row r="259" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C258" s="110"/>
+      <c r="D258" s="110"/>
+      <c r="E258" s="110"/>
+      <c r="F258" s="111"/>
+    </row>
+    <row r="259" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="6">
         <v>257</v>
       </c>
-      <c r="B259" s="108"/>
-      <c r="C259" s="109"/>
-      <c r="D259" s="109"/>
-      <c r="E259" s="109"/>
-      <c r="F259" s="110"/>
-    </row>
-    <row r="260" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B259" s="112"/>
+      <c r="C259" s="113"/>
+      <c r="D259" s="113"/>
+      <c r="E259" s="113"/>
+      <c r="F259" s="114"/>
+    </row>
+    <row r="260" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6">
         <v>258</v>
       </c>
-      <c r="B260" s="108"/>
-      <c r="C260" s="109"/>
-      <c r="D260" s="109"/>
-      <c r="E260" s="109"/>
-      <c r="F260" s="110"/>
-    </row>
-    <row r="261" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B260" s="112"/>
+      <c r="C260" s="113"/>
+      <c r="D260" s="113"/>
+      <c r="E260" s="113"/>
+      <c r="F260" s="114"/>
+    </row>
+    <row r="261" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6">
         <v>259</v>
       </c>
-      <c r="B261" s="108"/>
-      <c r="C261" s="109"/>
-      <c r="D261" s="109"/>
-      <c r="E261" s="109"/>
-      <c r="F261" s="110"/>
-    </row>
-    <row r="262" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B261" s="112"/>
+      <c r="C261" s="113"/>
+      <c r="D261" s="113"/>
+      <c r="E261" s="113"/>
+      <c r="F261" s="114"/>
+    </row>
+    <row r="262" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6">
         <v>260</v>
       </c>
-      <c r="B262" s="108"/>
-      <c r="C262" s="109"/>
-      <c r="D262" s="109"/>
-      <c r="E262" s="109"/>
-      <c r="F262" s="110"/>
-    </row>
-    <row r="263" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B262" s="112"/>
+      <c r="C262" s="113"/>
+      <c r="D262" s="113"/>
+      <c r="E262" s="113"/>
+      <c r="F262" s="114"/>
+    </row>
+    <row r="263" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="6">
         <v>261</v>
       </c>
-      <c r="B263" s="108"/>
-      <c r="C263" s="109"/>
-      <c r="D263" s="109"/>
-      <c r="E263" s="109"/>
-      <c r="F263" s="110"/>
-    </row>
-    <row r="264" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B263" s="112"/>
+      <c r="C263" s="113"/>
+      <c r="D263" s="113"/>
+      <c r="E263" s="113"/>
+      <c r="F263" s="114"/>
+    </row>
+    <row r="264" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6">
         <v>262</v>
       </c>
-      <c r="B264" s="108"/>
-      <c r="C264" s="109"/>
-      <c r="D264" s="109"/>
-      <c r="E264" s="109"/>
-      <c r="F264" s="110"/>
-    </row>
-    <row r="265" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B264" s="112"/>
+      <c r="C264" s="113"/>
+      <c r="D264" s="113"/>
+      <c r="E264" s="113"/>
+      <c r="F264" s="114"/>
+    </row>
+    <row r="265" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="6">
         <v>263</v>
       </c>
-      <c r="B265" s="108"/>
-      <c r="C265" s="109"/>
-      <c r="D265" s="109"/>
-      <c r="E265" s="109"/>
-      <c r="F265" s="110"/>
-    </row>
-    <row r="266" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B265" s="112"/>
+      <c r="C265" s="113"/>
+      <c r="D265" s="113"/>
+      <c r="E265" s="113"/>
+      <c r="F265" s="114"/>
+    </row>
+    <row r="266" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6">
         <v>264</v>
       </c>
-      <c r="B266" s="108"/>
-      <c r="C266" s="109"/>
-      <c r="D266" s="109"/>
-      <c r="E266" s="109"/>
-      <c r="F266" s="110"/>
-    </row>
-    <row r="267" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B266" s="112"/>
+      <c r="C266" s="113"/>
+      <c r="D266" s="113"/>
+      <c r="E266" s="113"/>
+      <c r="F266" s="114"/>
+    </row>
+    <row r="267" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="6">
         <v>265</v>
       </c>
-      <c r="B267" s="108"/>
-      <c r="C267" s="109"/>
-      <c r="D267" s="109"/>
-      <c r="E267" s="109"/>
-      <c r="F267" s="110"/>
-    </row>
-    <row r="268" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B267" s="112"/>
+      <c r="C267" s="113"/>
+      <c r="D267" s="113"/>
+      <c r="E267" s="113"/>
+      <c r="F267" s="114"/>
+    </row>
+    <row r="268" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="6">
         <v>266</v>
       </c>
-      <c r="B268" s="108"/>
-      <c r="C268" s="109"/>
-      <c r="D268" s="109"/>
-      <c r="E268" s="109"/>
-      <c r="F268" s="110"/>
-    </row>
-    <row r="269" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B268" s="112"/>
+      <c r="C268" s="113"/>
+      <c r="D268" s="113"/>
+      <c r="E268" s="113"/>
+      <c r="F268" s="114"/>
+    </row>
+    <row r="269" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="6">
         <v>267</v>
       </c>
-      <c r="B269" s="108"/>
-      <c r="C269" s="109"/>
-      <c r="D269" s="109"/>
-      <c r="E269" s="109"/>
-      <c r="F269" s="110"/>
-    </row>
-    <row r="270" spans="1:6" s="141" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B269" s="112"/>
+      <c r="C269" s="113"/>
+      <c r="D269" s="113"/>
+      <c r="E269" s="113"/>
+      <c r="F269" s="114"/>
+    </row>
+    <row r="270" spans="1:6" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="6">
         <v>268</v>
       </c>
-      <c r="B270" s="108"/>
-      <c r="C270" s="109"/>
-      <c r="D270" s="109"/>
-      <c r="E270" s="109"/>
-      <c r="F270" s="110"/>
-    </row>
-    <row r="271" spans="1:6" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B270" s="112"/>
+      <c r="C270" s="113"/>
+      <c r="D270" s="113"/>
+      <c r="E270" s="113"/>
+      <c r="F270" s="114"/>
+    </row>
+    <row r="271" spans="1:6" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="6">
         <v>269</v>
       </c>
-      <c r="B271" s="108"/>
-      <c r="C271" s="109"/>
-      <c r="D271" s="109"/>
-      <c r="E271" s="109"/>
-      <c r="F271" s="110"/>
+      <c r="B271" s="112"/>
+      <c r="C271" s="113"/>
+      <c r="D271" s="113"/>
+      <c r="E271" s="113"/>
+      <c r="F271" s="114"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
         <v>270</v>
       </c>
-      <c r="B272" s="108"/>
-      <c r="C272" s="109"/>
-      <c r="D272" s="109"/>
-      <c r="E272" s="109"/>
-      <c r="F272" s="110"/>
+      <c r="B272" s="112"/>
+      <c r="C272" s="113"/>
+      <c r="D272" s="113"/>
+      <c r="E272" s="113"/>
+      <c r="F272" s="114"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="6">
         <v>271</v>
       </c>
-      <c r="B273" s="111"/>
-      <c r="C273" s="112"/>
-      <c r="D273" s="112"/>
-      <c r="E273" s="112"/>
-      <c r="F273" s="113"/>
+      <c r="B273" s="115"/>
+      <c r="C273" s="116"/>
+      <c r="D273" s="116"/>
+      <c r="E273" s="116"/>
+      <c r="F273" s="117"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274" s="6">
         <v>272</v>
       </c>
-      <c r="B274" s="137" t="s">
+      <c r="B274" s="73" t="s">
         <v>1621</v>
       </c>
-      <c r="C274" s="138"/>
+      <c r="C274" s="74"/>
       <c r="D274" s="43" t="s">
         <v>1624</v>
       </c>
@@ -28981,10 +29122,10 @@
       <c r="A276" s="6">
         <v>274</v>
       </c>
-      <c r="B276" s="137" t="s">
+      <c r="B276" s="73" t="s">
         <v>1623</v>
       </c>
-      <c r="C276" s="138"/>
+      <c r="C276" s="74"/>
       <c r="D276" s="43" t="s">
         <v>1631</v>
       </c>
@@ -28999,123 +29140,123 @@
       <c r="A277" s="6">
         <v>275</v>
       </c>
-      <c r="B277" s="105" t="s">
+      <c r="B277" s="109" t="s">
         <v>1476</v>
       </c>
-      <c r="C277" s="106"/>
-      <c r="D277" s="106"/>
-      <c r="E277" s="106"/>
-      <c r="F277" s="107"/>
+      <c r="C277" s="110"/>
+      <c r="D277" s="110"/>
+      <c r="E277" s="110"/>
+      <c r="F277" s="111"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278" s="6">
         <v>276</v>
       </c>
-      <c r="B278" s="108"/>
-      <c r="C278" s="109"/>
-      <c r="D278" s="109"/>
-      <c r="E278" s="109"/>
-      <c r="F278" s="110"/>
+      <c r="B278" s="112"/>
+      <c r="C278" s="113"/>
+      <c r="D278" s="113"/>
+      <c r="E278" s="113"/>
+      <c r="F278" s="114"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="6">
         <v>277</v>
       </c>
-      <c r="B279" s="108"/>
-      <c r="C279" s="109"/>
-      <c r="D279" s="109"/>
-      <c r="E279" s="109"/>
-      <c r="F279" s="110"/>
+      <c r="B279" s="112"/>
+      <c r="C279" s="113"/>
+      <c r="D279" s="113"/>
+      <c r="E279" s="113"/>
+      <c r="F279" s="114"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="6">
         <v>278</v>
       </c>
-      <c r="B280" s="108"/>
-      <c r="C280" s="109"/>
-      <c r="D280" s="109"/>
-      <c r="E280" s="109"/>
-      <c r="F280" s="110"/>
+      <c r="B280" s="112"/>
+      <c r="C280" s="113"/>
+      <c r="D280" s="113"/>
+      <c r="E280" s="113"/>
+      <c r="F280" s="114"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="6">
         <v>279</v>
       </c>
-      <c r="B281" s="108"/>
-      <c r="C281" s="109"/>
-      <c r="D281" s="109"/>
-      <c r="E281" s="109"/>
-      <c r="F281" s="110"/>
+      <c r="B281" s="112"/>
+      <c r="C281" s="113"/>
+      <c r="D281" s="113"/>
+      <c r="E281" s="113"/>
+      <c r="F281" s="114"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="6">
         <v>280</v>
       </c>
-      <c r="B282" s="108"/>
-      <c r="C282" s="109"/>
-      <c r="D282" s="109"/>
-      <c r="E282" s="109"/>
-      <c r="F282" s="110"/>
+      <c r="B282" s="112"/>
+      <c r="C282" s="113"/>
+      <c r="D282" s="113"/>
+      <c r="E282" s="113"/>
+      <c r="F282" s="114"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="6">
         <v>281</v>
       </c>
-      <c r="B283" s="108"/>
-      <c r="C283" s="109"/>
-      <c r="D283" s="109"/>
-      <c r="E283" s="109"/>
-      <c r="F283" s="110"/>
+      <c r="B283" s="112"/>
+      <c r="C283" s="113"/>
+      <c r="D283" s="113"/>
+      <c r="E283" s="113"/>
+      <c r="F283" s="114"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="6">
         <v>282</v>
       </c>
-      <c r="B284" s="108"/>
-      <c r="C284" s="109"/>
-      <c r="D284" s="109"/>
-      <c r="E284" s="109"/>
-      <c r="F284" s="110"/>
+      <c r="B284" s="112"/>
+      <c r="C284" s="113"/>
+      <c r="D284" s="113"/>
+      <c r="E284" s="113"/>
+      <c r="F284" s="114"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285" s="6">
         <v>283</v>
       </c>
-      <c r="B285" s="108"/>
-      <c r="C285" s="109"/>
-      <c r="D285" s="109"/>
-      <c r="E285" s="109"/>
-      <c r="F285" s="110"/>
+      <c r="B285" s="112"/>
+      <c r="C285" s="113"/>
+      <c r="D285" s="113"/>
+      <c r="E285" s="113"/>
+      <c r="F285" s="114"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="6">
         <v>284</v>
       </c>
-      <c r="B286" s="108"/>
-      <c r="C286" s="109"/>
-      <c r="D286" s="109"/>
-      <c r="E286" s="109"/>
-      <c r="F286" s="110"/>
+      <c r="B286" s="112"/>
+      <c r="C286" s="113"/>
+      <c r="D286" s="113"/>
+      <c r="E286" s="113"/>
+      <c r="F286" s="114"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="6">
         <v>285</v>
       </c>
-      <c r="B287" s="108"/>
-      <c r="C287" s="109"/>
-      <c r="D287" s="109"/>
-      <c r="E287" s="109"/>
-      <c r="F287" s="110"/>
+      <c r="B287" s="112"/>
+      <c r="C287" s="113"/>
+      <c r="D287" s="113"/>
+      <c r="E287" s="113"/>
+      <c r="F287" s="114"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288" s="6">
         <v>286</v>
       </c>
-      <c r="B288" s="111"/>
-      <c r="C288" s="112"/>
-      <c r="D288" s="112"/>
-      <c r="E288" s="112"/>
-      <c r="F288" s="113"/>
+      <c r="B288" s="115"/>
+      <c r="C288" s="116"/>
+      <c r="D288" s="116"/>
+      <c r="E288" s="116"/>
+      <c r="F288" s="117"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
@@ -29158,7 +29299,9 @@
       <c r="B291" s="17" t="s">
         <v>1634</v>
       </c>
-      <c r="C291" s="16"/>
+      <c r="C291" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="D291" s="43" t="s">
         <v>1637</v>
       </c>
@@ -29173,676 +29316,676 @@
       <c r="A292" s="6">
         <v>290</v>
       </c>
-      <c r="B292" s="105" t="s">
+      <c r="B292" s="109" t="s">
         <v>1476</v>
       </c>
-      <c r="C292" s="106"/>
-      <c r="D292" s="106"/>
-      <c r="E292" s="106"/>
-      <c r="F292" s="107"/>
+      <c r="C292" s="110"/>
+      <c r="D292" s="110"/>
+      <c r="E292" s="110"/>
+      <c r="F292" s="111"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="6">
         <v>291</v>
       </c>
-      <c r="B293" s="108"/>
-      <c r="C293" s="109"/>
-      <c r="D293" s="109"/>
-      <c r="E293" s="109"/>
-      <c r="F293" s="110"/>
+      <c r="B293" s="112"/>
+      <c r="C293" s="113"/>
+      <c r="D293" s="113"/>
+      <c r="E293" s="113"/>
+      <c r="F293" s="114"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="6">
         <v>292</v>
       </c>
-      <c r="B294" s="108"/>
-      <c r="C294" s="109"/>
-      <c r="D294" s="109"/>
-      <c r="E294" s="109"/>
-      <c r="F294" s="110"/>
+      <c r="B294" s="112"/>
+      <c r="C294" s="113"/>
+      <c r="D294" s="113"/>
+      <c r="E294" s="113"/>
+      <c r="F294" s="114"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295" s="6">
         <v>293</v>
       </c>
-      <c r="B295" s="108"/>
-      <c r="C295" s="109"/>
-      <c r="D295" s="109"/>
-      <c r="E295" s="109"/>
-      <c r="F295" s="110"/>
+      <c r="B295" s="112"/>
+      <c r="C295" s="113"/>
+      <c r="D295" s="113"/>
+      <c r="E295" s="113"/>
+      <c r="F295" s="114"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296" s="6">
         <v>294</v>
       </c>
-      <c r="B296" s="108"/>
-      <c r="C296" s="109"/>
-      <c r="D296" s="109"/>
-      <c r="E296" s="109"/>
-      <c r="F296" s="110"/>
+      <c r="B296" s="112"/>
+      <c r="C296" s="113"/>
+      <c r="D296" s="113"/>
+      <c r="E296" s="113"/>
+      <c r="F296" s="114"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297" s="6">
         <v>295</v>
       </c>
-      <c r="B297" s="108"/>
-      <c r="C297" s="109"/>
-      <c r="D297" s="109"/>
-      <c r="E297" s="109"/>
-      <c r="F297" s="110"/>
+      <c r="B297" s="112"/>
+      <c r="C297" s="113"/>
+      <c r="D297" s="113"/>
+      <c r="E297" s="113"/>
+      <c r="F297" s="114"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298" s="6">
         <v>296</v>
       </c>
-      <c r="B298" s="108"/>
-      <c r="C298" s="109"/>
-      <c r="D298" s="109"/>
-      <c r="E298" s="109"/>
-      <c r="F298" s="110"/>
+      <c r="B298" s="112"/>
+      <c r="C298" s="113"/>
+      <c r="D298" s="113"/>
+      <c r="E298" s="113"/>
+      <c r="F298" s="114"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299" s="6">
         <v>297</v>
       </c>
-      <c r="B299" s="108"/>
-      <c r="C299" s="109"/>
-      <c r="D299" s="109"/>
-      <c r="E299" s="109"/>
-      <c r="F299" s="110"/>
+      <c r="B299" s="112"/>
+      <c r="C299" s="113"/>
+      <c r="D299" s="113"/>
+      <c r="E299" s="113"/>
+      <c r="F299" s="114"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300" s="6">
         <v>298</v>
       </c>
-      <c r="B300" s="108"/>
-      <c r="C300" s="109"/>
-      <c r="D300" s="109"/>
-      <c r="E300" s="109"/>
-      <c r="F300" s="110"/>
+      <c r="B300" s="112"/>
+      <c r="C300" s="113"/>
+      <c r="D300" s="113"/>
+      <c r="E300" s="113"/>
+      <c r="F300" s="114"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301" s="6">
         <v>299</v>
       </c>
-      <c r="B301" s="108"/>
-      <c r="C301" s="109"/>
-      <c r="D301" s="109"/>
-      <c r="E301" s="109"/>
-      <c r="F301" s="110"/>
+      <c r="B301" s="112"/>
+      <c r="C301" s="113"/>
+      <c r="D301" s="113"/>
+      <c r="E301" s="113"/>
+      <c r="F301" s="114"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302" s="6">
         <v>300</v>
       </c>
-      <c r="B302" s="108"/>
-      <c r="C302" s="109"/>
-      <c r="D302" s="109"/>
-      <c r="E302" s="109"/>
-      <c r="F302" s="110"/>
+      <c r="B302" s="112"/>
+      <c r="C302" s="113"/>
+      <c r="D302" s="113"/>
+      <c r="E302" s="113"/>
+      <c r="F302" s="114"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303" s="6">
         <v>301</v>
       </c>
-      <c r="B303" s="108"/>
-      <c r="C303" s="109"/>
-      <c r="D303" s="109"/>
-      <c r="E303" s="109"/>
-      <c r="F303" s="110"/>
+      <c r="B303" s="112"/>
+      <c r="C303" s="113"/>
+      <c r="D303" s="113"/>
+      <c r="E303" s="113"/>
+      <c r="F303" s="114"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304" s="6">
         <v>302</v>
       </c>
-      <c r="B304" s="108"/>
-      <c r="C304" s="109"/>
-      <c r="D304" s="109"/>
-      <c r="E304" s="109"/>
-      <c r="F304" s="110"/>
+      <c r="B304" s="112"/>
+      <c r="C304" s="113"/>
+      <c r="D304" s="113"/>
+      <c r="E304" s="113"/>
+      <c r="F304" s="114"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305" s="6">
         <v>303</v>
       </c>
-      <c r="B305" s="108"/>
-      <c r="C305" s="109"/>
-      <c r="D305" s="109"/>
-      <c r="E305" s="109"/>
-      <c r="F305" s="110"/>
+      <c r="B305" s="112"/>
+      <c r="C305" s="113"/>
+      <c r="D305" s="113"/>
+      <c r="E305" s="113"/>
+      <c r="F305" s="114"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306" s="6">
         <v>304</v>
       </c>
-      <c r="B306" s="108"/>
-      <c r="C306" s="109"/>
-      <c r="D306" s="109"/>
-      <c r="E306" s="109"/>
-      <c r="F306" s="110"/>
+      <c r="B306" s="112"/>
+      <c r="C306" s="113"/>
+      <c r="D306" s="113"/>
+      <c r="E306" s="113"/>
+      <c r="F306" s="114"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307" s="6">
         <v>305</v>
       </c>
-      <c r="B307" s="108"/>
-      <c r="C307" s="109"/>
-      <c r="D307" s="109"/>
-      <c r="E307" s="109"/>
-      <c r="F307" s="110"/>
+      <c r="B307" s="112"/>
+      <c r="C307" s="113"/>
+      <c r="D307" s="113"/>
+      <c r="E307" s="113"/>
+      <c r="F307" s="114"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308" s="6">
         <v>306</v>
       </c>
-      <c r="B308" s="108"/>
-      <c r="C308" s="109"/>
-      <c r="D308" s="109"/>
-      <c r="E308" s="109"/>
-      <c r="F308" s="110"/>
+      <c r="B308" s="112"/>
+      <c r="C308" s="113"/>
+      <c r="D308" s="113"/>
+      <c r="E308" s="113"/>
+      <c r="F308" s="114"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309" s="6">
         <v>307</v>
       </c>
-      <c r="B309" s="108"/>
-      <c r="C309" s="109"/>
-      <c r="D309" s="109"/>
-      <c r="E309" s="109"/>
-      <c r="F309" s="110"/>
+      <c r="B309" s="112"/>
+      <c r="C309" s="113"/>
+      <c r="D309" s="113"/>
+      <c r="E309" s="113"/>
+      <c r="F309" s="114"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310" s="6">
         <v>308</v>
       </c>
-      <c r="B310" s="108"/>
-      <c r="C310" s="109"/>
-      <c r="D310" s="109"/>
-      <c r="E310" s="109"/>
-      <c r="F310" s="110"/>
+      <c r="B310" s="112"/>
+      <c r="C310" s="113"/>
+      <c r="D310" s="113"/>
+      <c r="E310" s="113"/>
+      <c r="F310" s="114"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="6">
         <v>309</v>
       </c>
-      <c r="B311" s="108"/>
-      <c r="C311" s="109"/>
-      <c r="D311" s="109"/>
-      <c r="E311" s="109"/>
-      <c r="F311" s="110"/>
+      <c r="B311" s="112"/>
+      <c r="C311" s="113"/>
+      <c r="D311" s="113"/>
+      <c r="E311" s="113"/>
+      <c r="F311" s="114"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312" s="6">
         <v>310</v>
       </c>
-      <c r="B312" s="108"/>
-      <c r="C312" s="109"/>
-      <c r="D312" s="109"/>
-      <c r="E312" s="109"/>
-      <c r="F312" s="110"/>
+      <c r="B312" s="112"/>
+      <c r="C312" s="113"/>
+      <c r="D312" s="113"/>
+      <c r="E312" s="113"/>
+      <c r="F312" s="114"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313" s="6">
         <v>311</v>
       </c>
-      <c r="B313" s="108"/>
-      <c r="C313" s="109"/>
-      <c r="D313" s="109"/>
-      <c r="E313" s="109"/>
-      <c r="F313" s="110"/>
+      <c r="B313" s="112"/>
+      <c r="C313" s="113"/>
+      <c r="D313" s="113"/>
+      <c r="E313" s="113"/>
+      <c r="F313" s="114"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314" s="6">
         <v>312</v>
       </c>
-      <c r="B314" s="108"/>
-      <c r="C314" s="109"/>
-      <c r="D314" s="109"/>
-      <c r="E314" s="109"/>
-      <c r="F314" s="110"/>
+      <c r="B314" s="112"/>
+      <c r="C314" s="113"/>
+      <c r="D314" s="113"/>
+      <c r="E314" s="113"/>
+      <c r="F314" s="114"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315" s="6">
         <v>313</v>
       </c>
-      <c r="B315" s="108"/>
-      <c r="C315" s="109"/>
-      <c r="D315" s="109"/>
-      <c r="E315" s="109"/>
-      <c r="F315" s="110"/>
+      <c r="B315" s="112"/>
+      <c r="C315" s="113"/>
+      <c r="D315" s="113"/>
+      <c r="E315" s="113"/>
+      <c r="F315" s="114"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316" s="6">
         <v>314</v>
       </c>
-      <c r="B316" s="108"/>
-      <c r="C316" s="109"/>
-      <c r="D316" s="109"/>
-      <c r="E316" s="109"/>
-      <c r="F316" s="110"/>
+      <c r="B316" s="112"/>
+      <c r="C316" s="113"/>
+      <c r="D316" s="113"/>
+      <c r="E316" s="113"/>
+      <c r="F316" s="114"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317" s="6">
         <v>315</v>
       </c>
-      <c r="B317" s="108"/>
-      <c r="C317" s="109"/>
-      <c r="D317" s="109"/>
-      <c r="E317" s="109"/>
-      <c r="F317" s="110"/>
+      <c r="B317" s="112"/>
+      <c r="C317" s="113"/>
+      <c r="D317" s="113"/>
+      <c r="E317" s="113"/>
+      <c r="F317" s="114"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318" s="6">
         <v>316</v>
       </c>
-      <c r="B318" s="108"/>
-      <c r="C318" s="109"/>
-      <c r="D318" s="109"/>
-      <c r="E318" s="109"/>
-      <c r="F318" s="110"/>
+      <c r="B318" s="112"/>
+      <c r="C318" s="113"/>
+      <c r="D318" s="113"/>
+      <c r="E318" s="113"/>
+      <c r="F318" s="114"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319" s="6">
         <v>317</v>
       </c>
-      <c r="B319" s="108"/>
-      <c r="C319" s="109"/>
-      <c r="D319" s="109"/>
-      <c r="E319" s="109"/>
-      <c r="F319" s="110"/>
+      <c r="B319" s="112"/>
+      <c r="C319" s="113"/>
+      <c r="D319" s="113"/>
+      <c r="E319" s="113"/>
+      <c r="F319" s="114"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320" s="6">
         <v>318</v>
       </c>
-      <c r="B320" s="108"/>
-      <c r="C320" s="109"/>
-      <c r="D320" s="109"/>
-      <c r="E320" s="109"/>
-      <c r="F320" s="110"/>
+      <c r="B320" s="112"/>
+      <c r="C320" s="113"/>
+      <c r="D320" s="113"/>
+      <c r="E320" s="113"/>
+      <c r="F320" s="114"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321" s="6">
         <v>319</v>
       </c>
-      <c r="B321" s="108"/>
-      <c r="C321" s="109"/>
-      <c r="D321" s="109"/>
-      <c r="E321" s="109"/>
-      <c r="F321" s="110"/>
+      <c r="B321" s="112"/>
+      <c r="C321" s="113"/>
+      <c r="D321" s="113"/>
+      <c r="E321" s="113"/>
+      <c r="F321" s="114"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322" s="6">
         <v>320</v>
       </c>
-      <c r="B322" s="108"/>
-      <c r="C322" s="109"/>
-      <c r="D322" s="109"/>
-      <c r="E322" s="109"/>
-      <c r="F322" s="110"/>
+      <c r="B322" s="112"/>
+      <c r="C322" s="113"/>
+      <c r="D322" s="113"/>
+      <c r="E322" s="113"/>
+      <c r="F322" s="114"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323" s="6">
         <v>321</v>
       </c>
-      <c r="B323" s="108"/>
-      <c r="C323" s="109"/>
-      <c r="D323" s="109"/>
-      <c r="E323" s="109"/>
-      <c r="F323" s="110"/>
+      <c r="B323" s="112"/>
+      <c r="C323" s="113"/>
+      <c r="D323" s="113"/>
+      <c r="E323" s="113"/>
+      <c r="F323" s="114"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324" s="6">
         <v>322</v>
       </c>
-      <c r="B324" s="108"/>
-      <c r="C324" s="109"/>
-      <c r="D324" s="109"/>
-      <c r="E324" s="109"/>
-      <c r="F324" s="110"/>
+      <c r="B324" s="112"/>
+      <c r="C324" s="113"/>
+      <c r="D324" s="113"/>
+      <c r="E324" s="113"/>
+      <c r="F324" s="114"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325" s="6">
         <v>323</v>
       </c>
-      <c r="B325" s="108"/>
-      <c r="C325" s="109"/>
-      <c r="D325" s="109"/>
-      <c r="E325" s="109"/>
-      <c r="F325" s="110"/>
+      <c r="B325" s="112"/>
+      <c r="C325" s="113"/>
+      <c r="D325" s="113"/>
+      <c r="E325" s="113"/>
+      <c r="F325" s="114"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326" s="6">
         <v>324</v>
       </c>
-      <c r="B326" s="108"/>
-      <c r="C326" s="109"/>
-      <c r="D326" s="109"/>
-      <c r="E326" s="109"/>
-      <c r="F326" s="110"/>
+      <c r="B326" s="112"/>
+      <c r="C326" s="113"/>
+      <c r="D326" s="113"/>
+      <c r="E326" s="113"/>
+      <c r="F326" s="114"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327" s="6">
         <v>325</v>
       </c>
-      <c r="B327" s="108"/>
-      <c r="C327" s="109"/>
-      <c r="D327" s="109"/>
-      <c r="E327" s="109"/>
-      <c r="F327" s="110"/>
+      <c r="B327" s="112"/>
+      <c r="C327" s="113"/>
+      <c r="D327" s="113"/>
+      <c r="E327" s="113"/>
+      <c r="F327" s="114"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328" s="6">
         <v>326</v>
       </c>
-      <c r="B328" s="108"/>
-      <c r="C328" s="109"/>
-      <c r="D328" s="109"/>
-      <c r="E328" s="109"/>
-      <c r="F328" s="110"/>
+      <c r="B328" s="112"/>
+      <c r="C328" s="113"/>
+      <c r="D328" s="113"/>
+      <c r="E328" s="113"/>
+      <c r="F328" s="114"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329" s="6">
         <v>327</v>
       </c>
-      <c r="B329" s="108"/>
-      <c r="C329" s="109"/>
-      <c r="D329" s="109"/>
-      <c r="E329" s="109"/>
-      <c r="F329" s="110"/>
+      <c r="B329" s="112"/>
+      <c r="C329" s="113"/>
+      <c r="D329" s="113"/>
+      <c r="E329" s="113"/>
+      <c r="F329" s="114"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330" s="6">
         <v>328</v>
       </c>
-      <c r="B330" s="108"/>
-      <c r="C330" s="109"/>
-      <c r="D330" s="109"/>
-      <c r="E330" s="109"/>
-      <c r="F330" s="110"/>
+      <c r="B330" s="112"/>
+      <c r="C330" s="113"/>
+      <c r="D330" s="113"/>
+      <c r="E330" s="113"/>
+      <c r="F330" s="114"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331" s="6">
         <v>329</v>
       </c>
-      <c r="B331" s="108"/>
-      <c r="C331" s="109"/>
-      <c r="D331" s="109"/>
-      <c r="E331" s="109"/>
-      <c r="F331" s="110"/>
+      <c r="B331" s="112"/>
+      <c r="C331" s="113"/>
+      <c r="D331" s="113"/>
+      <c r="E331" s="113"/>
+      <c r="F331" s="114"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332" s="6">
         <v>330</v>
       </c>
-      <c r="B332" s="108"/>
-      <c r="C332" s="109"/>
-      <c r="D332" s="109"/>
-      <c r="E332" s="109"/>
-      <c r="F332" s="110"/>
+      <c r="B332" s="112"/>
+      <c r="C332" s="113"/>
+      <c r="D332" s="113"/>
+      <c r="E332" s="113"/>
+      <c r="F332" s="114"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333" s="6">
         <v>331</v>
       </c>
-      <c r="B333" s="108"/>
-      <c r="C333" s="109"/>
-      <c r="D333" s="109"/>
-      <c r="E333" s="109"/>
-      <c r="F333" s="110"/>
+      <c r="B333" s="112"/>
+      <c r="C333" s="113"/>
+      <c r="D333" s="113"/>
+      <c r="E333" s="113"/>
+      <c r="F333" s="114"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334" s="6">
         <v>332</v>
       </c>
-      <c r="B334" s="108"/>
-      <c r="C334" s="109"/>
-      <c r="D334" s="109"/>
-      <c r="E334" s="109"/>
-      <c r="F334" s="110"/>
+      <c r="B334" s="112"/>
+      <c r="C334" s="113"/>
+      <c r="D334" s="113"/>
+      <c r="E334" s="113"/>
+      <c r="F334" s="114"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335" s="6">
         <v>333</v>
       </c>
-      <c r="B335" s="108"/>
-      <c r="C335" s="109"/>
-      <c r="D335" s="109"/>
-      <c r="E335" s="109"/>
-      <c r="F335" s="110"/>
+      <c r="B335" s="112"/>
+      <c r="C335" s="113"/>
+      <c r="D335" s="113"/>
+      <c r="E335" s="113"/>
+      <c r="F335" s="114"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336" s="6">
         <v>334</v>
       </c>
-      <c r="B336" s="108"/>
-      <c r="C336" s="109"/>
-      <c r="D336" s="109"/>
-      <c r="E336" s="109"/>
-      <c r="F336" s="110"/>
+      <c r="B336" s="112"/>
+      <c r="C336" s="113"/>
+      <c r="D336" s="113"/>
+      <c r="E336" s="113"/>
+      <c r="F336" s="114"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337" s="6">
         <v>335</v>
       </c>
-      <c r="B337" s="108"/>
-      <c r="C337" s="109"/>
-      <c r="D337" s="109"/>
-      <c r="E337" s="109"/>
-      <c r="F337" s="110"/>
+      <c r="B337" s="112"/>
+      <c r="C337" s="113"/>
+      <c r="D337" s="113"/>
+      <c r="E337" s="113"/>
+      <c r="F337" s="114"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338" s="6">
         <v>336</v>
       </c>
-      <c r="B338" s="108"/>
-      <c r="C338" s="109"/>
-      <c r="D338" s="109"/>
-      <c r="E338" s="109"/>
-      <c r="F338" s="110"/>
+      <c r="B338" s="112"/>
+      <c r="C338" s="113"/>
+      <c r="D338" s="113"/>
+      <c r="E338" s="113"/>
+      <c r="F338" s="114"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339" s="6">
         <v>337</v>
       </c>
-      <c r="B339" s="108"/>
-      <c r="C339" s="109"/>
-      <c r="D339" s="109"/>
-      <c r="E339" s="109"/>
-      <c r="F339" s="110"/>
+      <c r="B339" s="112"/>
+      <c r="C339" s="113"/>
+      <c r="D339" s="113"/>
+      <c r="E339" s="113"/>
+      <c r="F339" s="114"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340" s="6">
         <v>338</v>
       </c>
-      <c r="B340" s="108"/>
-      <c r="C340" s="109"/>
-      <c r="D340" s="109"/>
-      <c r="E340" s="109"/>
-      <c r="F340" s="110"/>
+      <c r="B340" s="112"/>
+      <c r="C340" s="113"/>
+      <c r="D340" s="113"/>
+      <c r="E340" s="113"/>
+      <c r="F340" s="114"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341" s="6">
         <v>339</v>
       </c>
-      <c r="B341" s="108"/>
-      <c r="C341" s="109"/>
-      <c r="D341" s="109"/>
-      <c r="E341" s="109"/>
-      <c r="F341" s="110"/>
+      <c r="B341" s="112"/>
+      <c r="C341" s="113"/>
+      <c r="D341" s="113"/>
+      <c r="E341" s="113"/>
+      <c r="F341" s="114"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342" s="6">
         <v>340</v>
       </c>
-      <c r="B342" s="108"/>
-      <c r="C342" s="109"/>
-      <c r="D342" s="109"/>
-      <c r="E342" s="109"/>
-      <c r="F342" s="110"/>
+      <c r="B342" s="112"/>
+      <c r="C342" s="113"/>
+      <c r="D342" s="113"/>
+      <c r="E342" s="113"/>
+      <c r="F342" s="114"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343" s="6">
         <v>341</v>
       </c>
-      <c r="B343" s="108"/>
-      <c r="C343" s="109"/>
-      <c r="D343" s="109"/>
-      <c r="E343" s="109"/>
-      <c r="F343" s="110"/>
+      <c r="B343" s="112"/>
+      <c r="C343" s="113"/>
+      <c r="D343" s="113"/>
+      <c r="E343" s="113"/>
+      <c r="F343" s="114"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344" s="6">
         <v>342</v>
       </c>
-      <c r="B344" s="108"/>
-      <c r="C344" s="109"/>
-      <c r="D344" s="109"/>
-      <c r="E344" s="109"/>
-      <c r="F344" s="110"/>
+      <c r="B344" s="112"/>
+      <c r="C344" s="113"/>
+      <c r="D344" s="113"/>
+      <c r="E344" s="113"/>
+      <c r="F344" s="114"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345" s="6">
         <v>343</v>
       </c>
-      <c r="B345" s="108"/>
-      <c r="C345" s="109"/>
-      <c r="D345" s="109"/>
-      <c r="E345" s="109"/>
-      <c r="F345" s="110"/>
+      <c r="B345" s="112"/>
+      <c r="C345" s="113"/>
+      <c r="D345" s="113"/>
+      <c r="E345" s="113"/>
+      <c r="F345" s="114"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346" s="6">
         <v>344</v>
       </c>
-      <c r="B346" s="108"/>
-      <c r="C346" s="109"/>
-      <c r="D346" s="109"/>
-      <c r="E346" s="109"/>
-      <c r="F346" s="110"/>
+      <c r="B346" s="112"/>
+      <c r="C346" s="113"/>
+      <c r="D346" s="113"/>
+      <c r="E346" s="113"/>
+      <c r="F346" s="114"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347" s="6">
         <v>345</v>
       </c>
-      <c r="B347" s="108"/>
-      <c r="C347" s="109"/>
-      <c r="D347" s="109"/>
-      <c r="E347" s="109"/>
-      <c r="F347" s="110"/>
+      <c r="B347" s="112"/>
+      <c r="C347" s="113"/>
+      <c r="D347" s="113"/>
+      <c r="E347" s="113"/>
+      <c r="F347" s="114"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348" s="6">
         <v>346</v>
       </c>
-      <c r="B348" s="108"/>
-      <c r="C348" s="109"/>
-      <c r="D348" s="109"/>
-      <c r="E348" s="109"/>
-      <c r="F348" s="110"/>
+      <c r="B348" s="112"/>
+      <c r="C348" s="113"/>
+      <c r="D348" s="113"/>
+      <c r="E348" s="113"/>
+      <c r="F348" s="114"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349" s="6">
         <v>347</v>
       </c>
-      <c r="B349" s="108"/>
-      <c r="C349" s="109"/>
-      <c r="D349" s="109"/>
-      <c r="E349" s="109"/>
-      <c r="F349" s="110"/>
+      <c r="B349" s="112"/>
+      <c r="C349" s="113"/>
+      <c r="D349" s="113"/>
+      <c r="E349" s="113"/>
+      <c r="F349" s="114"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350" s="6">
         <v>348</v>
       </c>
-      <c r="B350" s="108"/>
-      <c r="C350" s="109"/>
-      <c r="D350" s="109"/>
-      <c r="E350" s="109"/>
-      <c r="F350" s="110"/>
+      <c r="B350" s="112"/>
+      <c r="C350" s="113"/>
+      <c r="D350" s="113"/>
+      <c r="E350" s="113"/>
+      <c r="F350" s="114"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351" s="6">
         <v>349</v>
       </c>
-      <c r="B351" s="108"/>
-      <c r="C351" s="109"/>
-      <c r="D351" s="109"/>
-      <c r="E351" s="109"/>
-      <c r="F351" s="110"/>
+      <c r="B351" s="112"/>
+      <c r="C351" s="113"/>
+      <c r="D351" s="113"/>
+      <c r="E351" s="113"/>
+      <c r="F351" s="114"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352" s="6">
         <v>350</v>
       </c>
-      <c r="B352" s="108"/>
-      <c r="C352" s="109"/>
-      <c r="D352" s="109"/>
-      <c r="E352" s="109"/>
-      <c r="F352" s="110"/>
+      <c r="B352" s="112"/>
+      <c r="C352" s="113"/>
+      <c r="D352" s="113"/>
+      <c r="E352" s="113"/>
+      <c r="F352" s="114"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353" s="6">
         <v>351</v>
       </c>
-      <c r="B353" s="108"/>
-      <c r="C353" s="109"/>
-      <c r="D353" s="109"/>
-      <c r="E353" s="109"/>
-      <c r="F353" s="110"/>
+      <c r="B353" s="112"/>
+      <c r="C353" s="113"/>
+      <c r="D353" s="113"/>
+      <c r="E353" s="113"/>
+      <c r="F353" s="114"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354" s="6">
         <v>352</v>
       </c>
-      <c r="B354" s="108"/>
-      <c r="C354" s="109"/>
-      <c r="D354" s="109"/>
-      <c r="E354" s="109"/>
-      <c r="F354" s="110"/>
+      <c r="B354" s="112"/>
+      <c r="C354" s="113"/>
+      <c r="D354" s="113"/>
+      <c r="E354" s="113"/>
+      <c r="F354" s="114"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355" s="6">
         <v>353</v>
       </c>
-      <c r="B355" s="108"/>
-      <c r="C355" s="109"/>
-      <c r="D355" s="109"/>
-      <c r="E355" s="109"/>
-      <c r="F355" s="110"/>
+      <c r="B355" s="112"/>
+      <c r="C355" s="113"/>
+      <c r="D355" s="113"/>
+      <c r="E355" s="113"/>
+      <c r="F355" s="114"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356" s="6">
         <v>354</v>
       </c>
-      <c r="B356" s="108"/>
-      <c r="C356" s="109"/>
-      <c r="D356" s="109"/>
-      <c r="E356" s="109"/>
-      <c r="F356" s="110"/>
+      <c r="B356" s="112"/>
+      <c r="C356" s="113"/>
+      <c r="D356" s="113"/>
+      <c r="E356" s="113"/>
+      <c r="F356" s="114"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357" s="6">
         <v>355</v>
       </c>
-      <c r="B357" s="111"/>
-      <c r="C357" s="112"/>
-      <c r="D357" s="112"/>
-      <c r="E357" s="112"/>
-      <c r="F357" s="113"/>
+      <c r="B357" s="115"/>
+      <c r="C357" s="116"/>
+      <c r="D357" s="116"/>
+      <c r="E357" s="116"/>
+      <c r="F357" s="117"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358" s="6">
         <v>356</v>
       </c>
-      <c r="B358" s="137" t="s">
+      <c r="B358" s="73" t="s">
         <v>1643</v>
       </c>
-      <c r="C358" s="117" t="s">
-        <v>542</v>
-      </c>
-      <c r="D358" s="118"/>
-      <c r="E358" s="119"/>
+      <c r="C358" s="103" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D358" s="104"/>
+      <c r="E358" s="105"/>
       <c r="F358" s="23" t="s">
         <v>1645</v>
       </c>
@@ -29854,283 +29997,424 @@
       <c r="B359" s="17" t="s">
         <v>1644</v>
       </c>
-      <c r="C359" s="120"/>
-      <c r="D359" s="121"/>
-      <c r="E359" s="122"/>
+      <c r="C359" s="121" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D359" s="122"/>
+      <c r="E359" s="123"/>
       <c r="F359" s="23" t="s">
         <v>1646</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="27">
-    <mergeCell ref="C358:E359"/>
+  <mergeCells count="51">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C358:E358"/>
+    <mergeCell ref="C359:E359"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C226:E226"/>
+    <mergeCell ref="C227:E227"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K14"/>
+    <mergeCell ref="B106:F111"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B2:F9"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="B258:F273"/>
     <mergeCell ref="B277:F288"/>
     <mergeCell ref="B292:F357"/>
     <mergeCell ref="B44:F44"/>
-    <mergeCell ref="C58:E61"/>
-    <mergeCell ref="C163:E166"/>
-    <mergeCell ref="C225:E230"/>
-    <mergeCell ref="C112:E114"/>
-    <mergeCell ref="C121:E122"/>
     <mergeCell ref="C137:E137"/>
     <mergeCell ref="B138:F143"/>
     <mergeCell ref="B174:F185"/>
     <mergeCell ref="B218:F218"/>
     <mergeCell ref="C234:E234"/>
     <mergeCell ref="C238:E238"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K14"/>
-    <mergeCell ref="B106:F111"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="C34:E35"/>
-    <mergeCell ref="C87:E93"/>
-    <mergeCell ref="B2:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C11 C18 C29 C34 C23 C58 C87 C112 C121 C137 C163 C241">
-    <cfRule type="containsText" dxfId="60" priority="90" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="71" priority="114" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E17">
-    <cfRule type="containsText" dxfId="59" priority="89" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="70" priority="113" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13 C15 C17 C21 D27:E27 C31:E31 C33:E33 C37:E37 C39:E39 C43:E43 C46:E46 C50:E50 C56 C63:E63 C71 C73 C75 C77 C81:E81 C83:E83 C95:E95 C115:E115 C117:E117 C119:E119 C123:E123 C125:E125 C127:E127 C131:E131 C133:E133 C135:E135 C145:E145 C155 C157 C159 C161:E161 C167:E167 C169:E169 C171:E171 C187:E187 C219:E219 C231:E231 C41:E41 D55 D57 D72 D74 D76 D154 D156 D158 C48:E48 C52:E52 C54:E54 E56 C85:E85 C65:E65 C67:E67 C69:E69 E71 E73 E75 E77 C97:E97 C99:E99 C101:E101 C103:E103 C105:E105 C129:E129 C147:E147 C149:E149 C151:E151 C153:E153 E155 E157 E159 C173:E173 C189:E189 C191:E191 C193:E193 C195:E195 C197:E197 C199:E199 C201:E201 C203:E203 C205:E205">
-    <cfRule type="containsText" dxfId="58" priority="88" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="69" priority="112" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 C14 C16 C20:E20 C24:E24 C28:E28 C32:E32 C36:E36 C38:E38 C40:E40 C42:E42 C45:E45 C51:E51 C55 C57 C62:E62 C72 C74 C76 C78:E78 C82:E82 C86:E86 C94:E94 C116:E116 C118:E118 C120:E120 C124:E124 C126:E126 C130:E130 C134:E134 C136:E136 C144:E144 C154 C156 C158 C160:E160 C162:E162 C168:E168 C170:E170 C186:E186 C220:E220 C232:E232 D25:E26 D21:E21 D56 D71 D73 D75 D77 D155 D157 D159 C22:E22 C47:E47 C49:E49 C53:E53 E55 E57 C84:E84 C64:E64 C66:E66 C68:E68 C70:E70 E72 E74 E76 C96:E96 C98:E98 C100:E100 C102:E102 C104:E104 C128:E128 C132:E132 C146:E146 C148:E148 C150:E150 C152:E152 E154 E156 E158 C172:E172 C188:E188 C190:E190 C192:E192 C194:E194 C196:E196 C198:E198 C200:E200 C202:E202 C204:E204 C206:E206 C25:C27 C208:E217 C239:C240 C235:C237">
-    <cfRule type="containsText" dxfId="57" priority="87" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="68" priority="111" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12 E14 E16">
-    <cfRule type="containsText" dxfId="56" priority="71" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="67" priority="95" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:E80">
-    <cfRule type="containsText" dxfId="55" priority="63" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="66" priority="87" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="containsText" dxfId="54" priority="65" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="65" priority="89" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:E10">
-    <cfRule type="containsText" dxfId="53" priority="66" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="64" priority="90" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:E79">
-    <cfRule type="containsText" dxfId="52" priority="64" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="63" priority="88" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C221:E224">
-    <cfRule type="containsText" dxfId="51" priority="61" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="62" priority="85" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C225">
-    <cfRule type="containsText" dxfId="50" priority="60" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="61" priority="84" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238">
-    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="60" priority="40" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C233:E233">
-    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="59" priority="39" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C233)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242">
-    <cfRule type="containsText" dxfId="47" priority="56" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="58" priority="80" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C242)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="containsText" dxfId="46" priority="54" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="57" priority="78" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C243)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D237:E237">
-    <cfRule type="containsText" dxfId="45" priority="17" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="56" priority="41" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="55" priority="74" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="43" priority="48" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="54" priority="72" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="53" priority="70" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="52" priority="69" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="51" priority="68" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="50" priority="67" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="49" priority="66" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="48" priority="65" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="47" priority="64" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253">
-    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="46" priority="63" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="45" priority="62" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C254)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C255">
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C256">
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="43" priority="60" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C257">
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274">
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="41" priority="56" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C275">
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="55" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C276">
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="39" priority="54" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289:C291">
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C234">
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="44" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D235:E235">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D236:E236">
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D241:E241">
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D241)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D239:E239">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D240:E240">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D240)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D242:E257">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D242)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D274:E274">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D275:E275">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D276:E276">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D289:E289">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D290:E290">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:E291">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C358">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C358)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C165)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C226)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C227)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C228)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C229)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C230)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C359">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C359)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C89)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113:C114">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -30157,8 +30441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L138"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
